--- a/templates/AutomationOrg/LOCAdd.xlsx
+++ b/templates/AutomationOrg/LOCAdd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QA-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730B047A-3C1F-4527-8DFF-6E4DCDB50D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F864674-CBE6-4D6B-BBD0-9F6D03B4BDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K1048576"/>
+      <selection activeCell="E5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,9 +603,7 @@
       <c r="F3">
         <v>1000</v>
       </c>
-      <c r="G3" s="1">
-        <v>44353</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="I3" t="s">
         <v>34</v>
       </c>
